--- a/backend/data/macro_nutrients_p2.xlsx
+++ b/backend/data/macro_nutrients_p2.xlsx
@@ -1,561 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pastro/Dropbox/My Mac (Nicolo’s MacBook Air)/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3661AD5-C7BB-994B-9B3C-D03126C96056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{979DA5B6-04B7-044F-81CE-822575B8CF9A}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="171">
-  <si>
-    <t>n_servings</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>serving_size</t>
-  </si>
-  <si>
-    <t>1 egg</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>4oz</t>
-  </si>
-  <si>
-    <t>protein_g</t>
-  </si>
-  <si>
-    <t>carbs_g</t>
-  </si>
-  <si>
-    <t>fat_g</t>
-  </si>
-  <si>
-    <t>calories</t>
-  </si>
-  <si>
-    <t>large 50g egg</t>
-  </si>
-  <si>
-    <t>boneless, skinless, raw</t>
-  </si>
-  <si>
-    <t>raw, skinless</t>
-  </si>
-  <si>
-    <t>raw, 91% lean</t>
-  </si>
-  <si>
-    <t>1 tortilla</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>1 slice</t>
-  </si>
-  <si>
-    <t>1 cup</t>
-  </si>
-  <si>
-    <t>jasmine, cooked</t>
-  </si>
-  <si>
-    <t>1 avocado</t>
-  </si>
-  <si>
-    <t>baked, medium</t>
-  </si>
-  <si>
-    <t>1 potato</t>
-  </si>
-  <si>
-    <t>154g apple</t>
-  </si>
-  <si>
-    <t>1 apple</t>
-  </si>
-  <si>
-    <t>1 banana</t>
-  </si>
-  <si>
-    <t>1 orange</t>
-  </si>
-  <si>
-    <t>0.5 cup</t>
-  </si>
-  <si>
-    <t>chunks</t>
-  </si>
-  <si>
-    <t>raw, fresh</t>
-  </si>
-  <si>
-    <t>raw</t>
-  </si>
-  <si>
-    <t>raw, chopped</t>
-  </si>
-  <si>
-    <t>chopped or diced</t>
-  </si>
-  <si>
-    <t>chopped</t>
-  </si>
-  <si>
-    <t>1 tomato</t>
-  </si>
-  <si>
-    <t>small cucumber</t>
-  </si>
-  <si>
-    <t>1 pepper</t>
-  </si>
-  <si>
-    <t>medium, 5 inch long</t>
-  </si>
-  <si>
-    <t>cooked</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>chicken thigh</t>
-  </si>
-  <si>
-    <t>chicken breast</t>
-  </si>
-  <si>
-    <t>ground beef</t>
-  </si>
-  <si>
-    <t>flour tortilla</t>
-  </si>
-  <si>
-    <t>white bread</t>
-  </si>
-  <si>
-    <t>white rice</t>
-  </si>
-  <si>
-    <t>avocado</t>
-  </si>
-  <si>
-    <t>potato</t>
-  </si>
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>banana</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>grape</t>
-  </si>
-  <si>
-    <t>strawberry</t>
-  </si>
-  <si>
-    <t>blueberry</t>
-  </si>
-  <si>
-    <t>raspberry</t>
-  </si>
-  <si>
-    <t>pineapple</t>
-  </si>
-  <si>
-    <t>watermelon</t>
-  </si>
-  <si>
-    <t>spinach</t>
-  </si>
-  <si>
-    <t>kale</t>
-  </si>
-  <si>
-    <t>broccoli</t>
-  </si>
-  <si>
-    <t>carrot</t>
-  </si>
-  <si>
-    <t>tomato</t>
-  </si>
-  <si>
-    <t>cucumber</t>
-  </si>
-  <si>
-    <t>bell pepper</t>
-  </si>
-  <si>
-    <t>sweet potato</t>
-  </si>
-  <si>
-    <t>brown rice</t>
-  </si>
-  <si>
-    <t>quinoa</t>
-  </si>
-  <si>
-    <t>oatmeal</t>
-  </si>
-  <si>
-    <t>whole wheat bread</t>
-  </si>
-  <si>
-    <t>salmon</t>
-  </si>
-  <si>
-    <t>tuna</t>
-  </si>
-  <si>
-    <t>canned</t>
-  </si>
-  <si>
-    <t>1 can</t>
-  </si>
-  <si>
-    <t>greek yogurt</t>
-  </si>
-  <si>
-    <t>plain, nonfat, 0%</t>
-  </si>
-  <si>
-    <t>cottage cheese</t>
-  </si>
-  <si>
-    <t>regular, 4%</t>
-  </si>
-  <si>
-    <t>almond</t>
-  </si>
-  <si>
-    <t>6 almonds</t>
-  </si>
-  <si>
-    <t>walnut</t>
-  </si>
-  <si>
-    <t>6 walnuts</t>
-  </si>
-  <si>
-    <t>peanut butter</t>
-  </si>
-  <si>
-    <t>skippy</t>
-  </si>
-  <si>
-    <t>2 tbsp</t>
-  </si>
-  <si>
-    <t>olive oil</t>
-  </si>
-  <si>
-    <t>1 tbsp</t>
-  </si>
-  <si>
-    <t>black bean</t>
-  </si>
-  <si>
-    <t>chickpea</t>
-  </si>
-  <si>
-    <t>lentil</t>
-  </si>
-  <si>
-    <t>whole milk</t>
-  </si>
-  <si>
-    <t>2% milk</t>
-  </si>
-  <si>
-    <t>parmesan cheese</t>
-  </si>
-  <si>
-    <t>cheddar cheese</t>
-  </si>
-  <si>
-    <t>1oz</t>
-  </si>
-  <si>
-    <t>american cheese</t>
-  </si>
-  <si>
-    <t>tofu</t>
-  </si>
-  <si>
-    <t>3oz</t>
-  </si>
-  <si>
-    <t>pasta</t>
-  </si>
-  <si>
-    <t>whole wheat pasta</t>
-  </si>
-  <si>
-    <t>lettuce</t>
-  </si>
-  <si>
-    <t>arugula</t>
-  </si>
-  <si>
-    <t>onion</t>
-  </si>
-  <si>
-    <t>garlic</t>
-  </si>
-  <si>
-    <t>1 clove</t>
-  </si>
-  <si>
-    <t>lemon</t>
-  </si>
-  <si>
-    <t>lime</t>
-  </si>
-  <si>
-    <t>honey</t>
-  </si>
-  <si>
-    <t>maple syrup</t>
-  </si>
-  <si>
-    <t>chia seed</t>
-  </si>
-  <si>
-    <t>flax seed</t>
-  </si>
-  <si>
-    <t>brussel sprouts</t>
-  </si>
-  <si>
-    <t>cauliflower</t>
-  </si>
-  <si>
-    <t>zucchini</t>
-  </si>
-  <si>
-    <t>ground turkey</t>
-  </si>
-  <si>
-    <t>ground pork</t>
-  </si>
-  <si>
-    <t>green pea</t>
-  </si>
-  <si>
-    <t>asparagus</t>
-  </si>
-  <si>
-    <t>edamame</t>
-  </si>
-  <si>
-    <t>cabbage</t>
-  </si>
-  <si>
-    <t>corn</t>
-  </si>
-  <si>
-    <t>mushroom</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>couscous</t>
-  </si>
-  <si>
-    <t>coconut milk</t>
-  </si>
-  <si>
-    <t>almond milk</t>
-  </si>
-  <si>
-    <t>unsweetened</t>
-  </si>
-  <si>
-    <t>cashew milk</t>
-  </si>
-  <si>
-    <t>rice milk</t>
-  </si>
-  <si>
-    <t>mango</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>mixed berry</t>
-  </si>
-  <si>
-    <t>sirloin steak</t>
-  </si>
-  <si>
-    <t>flank steak</t>
-  </si>
-  <si>
-    <t>new york steak</t>
-  </si>
-  <si>
-    <t>balsamic vinegar</t>
-  </si>
-  <si>
-    <t>red wine</t>
-  </si>
-  <si>
-    <t>1 glass</t>
-  </si>
-  <si>
-    <t>6oz</t>
-  </si>
-  <si>
-    <t>white wine</t>
-  </si>
-  <si>
-    <t>light beer</t>
-  </si>
-  <si>
-    <t>1 beer</t>
-  </si>
-  <si>
-    <t>ipa</t>
-  </si>
-  <si>
-    <t>tequila</t>
-  </si>
-  <si>
-    <t>1 shot</t>
-  </si>
-  <si>
-    <t>vodka</t>
-  </si>
-  <si>
-    <t>gin</t>
-  </si>
-  <si>
-    <t>whisky</t>
-  </si>
-  <si>
-    <t>1.5oz</t>
-  </si>
-  <si>
-    <t>bacon</t>
-  </si>
-  <si>
-    <t>2 pieces</t>
-  </si>
-  <si>
-    <t>sausage</t>
-  </si>
-  <si>
-    <t>panchetta</t>
-  </si>
-  <si>
-    <t>jam</t>
-  </si>
-  <si>
-    <t>corn tortilla</t>
-  </si>
-  <si>
-    <t>quick carb</t>
-  </si>
-  <si>
-    <t>quick protein</t>
-  </si>
-  <si>
-    <t>quick fat</t>
-  </si>
-  <si>
-    <t>quick add fat</t>
-  </si>
-  <si>
-    <t>quick add protein</t>
-  </si>
-  <si>
-    <t>quick add carb</t>
-  </si>
-  <si>
-    <t>1 gram</t>
-  </si>
-  <si>
-    <t>quick alcohol</t>
-  </si>
-  <si>
-    <t>quick add alcohol</t>
-  </si>
-  <si>
-    <t>quick add calories</t>
-  </si>
-  <si>
-    <t>quick calorie</t>
-  </si>
-  <si>
-    <t>ranch</t>
-  </si>
-  <si>
-    <t>pesto</t>
-  </si>
-  <si>
-    <t>marinara sauce</t>
-  </si>
-  <si>
-    <t>ketchup</t>
-  </si>
-  <si>
-    <t>mustard</t>
-  </si>
-  <si>
-    <t>relish</t>
-  </si>
-  <si>
-    <t>mayonnaise</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -585,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -614,44 +86,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -679,31 +151,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -731,23 +186,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -759,194 +197,246 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D653EB52-84AC-9041-B428-42CB61C3A536}">
-  <dimension ref="A1:H107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>food</v>
+      </c>
+      <c r="B1" t="str">
+        <v>info</v>
+      </c>
+      <c r="C1" t="str">
+        <v>serving_size</v>
+      </c>
+      <c r="D1" t="str">
+        <v>n_servings</v>
+      </c>
+      <c r="E1" t="str">
+        <v>calories</v>
+      </c>
+      <c r="F1" t="str">
+        <v>carbs_g</v>
+      </c>
+      <c r="G1" t="str">
+        <v>fat_g</v>
+      </c>
+      <c r="H1" t="str">
+        <v>protein_g</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>egg</v>
+      </c>
+      <c r="B2" t="str">
+        <v>large 50g egg</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1 egg</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -964,15 +454,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>chicken thigh</v>
+      </c>
+      <c r="B3" t="str">
+        <v>boneless, skinless, raw</v>
+      </c>
+      <c r="C3" t="str">
+        <v>4oz</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -990,15 +480,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>chicken breast</v>
+      </c>
+      <c r="B4" t="str">
+        <v>raw, skinless</v>
+      </c>
+      <c r="C4" t="str">
+        <v>4oz</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1016,15 +506,15 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ground beef</v>
+      </c>
+      <c r="B5" t="str">
+        <v>raw, 91% lean</v>
+      </c>
+      <c r="C5" t="str">
+        <v>4oz</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1042,15 +532,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>flour tortilla</v>
+      </c>
+      <c r="B6" t="str">
+        <v>medium</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1 tortilla</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1068,12 +558,12 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>white bread</v>
+      </c>
+      <c r="C7" t="str">
+        <v>1 slice</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1091,15 +581,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>white rice</v>
+      </c>
+      <c r="B8" t="str">
+        <v>jasmine, cooked</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1117,15 +607,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>avocado</v>
+      </c>
+      <c r="B9" t="str">
+        <v>medium</v>
+      </c>
+      <c r="C9" t="str">
+        <v>1 avocado</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1143,15 +633,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>potato</v>
+      </c>
+      <c r="B10" t="str">
+        <v>baked, medium</v>
+      </c>
+      <c r="C10" t="str">
+        <v>1 potato</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1169,15 +659,15 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>apple</v>
+      </c>
+      <c r="B11" t="str">
+        <v>154g apple</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1 apple</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1195,15 +685,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>banana</v>
+      </c>
+      <c r="B12" t="str">
+        <v>medium</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1 banana</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1221,15 +711,15 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>orange</v>
+      </c>
+      <c r="B13" t="str">
+        <v>medium</v>
+      </c>
+      <c r="C13" t="str">
+        <v>1 orange</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1247,12 +737,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>grape</v>
+      </c>
+      <c r="C14" t="str">
+        <v>0.5 cup</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1270,12 +760,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>strawberry</v>
+      </c>
+      <c r="C15" t="str">
+        <v>0.5 cup</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1293,12 +783,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>blueberry</v>
+      </c>
+      <c r="C16" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1316,12 +806,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>raspberry</v>
+      </c>
+      <c r="C17" t="str">
+        <v>0.5 cup</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1339,15 +829,15 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>pineapple</v>
+      </c>
+      <c r="B18" t="str">
+        <v>chunks</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1365,12 +855,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>watermelon</v>
+      </c>
+      <c r="C19" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1388,15 +878,15 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>spinach</v>
+      </c>
+      <c r="B20" t="str">
+        <v>raw, fresh</v>
+      </c>
+      <c r="C20" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1405,7 +895,7 @@
         <v>7</v>
       </c>
       <c r="F20">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -1414,15 +904,15 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>kale</v>
+      </c>
+      <c r="B21" t="str">
+        <v>raw, chopped</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1431,7 +921,7 @@
         <v>9</v>
       </c>
       <c r="F21">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G21">
         <v>0.4</v>
@@ -1440,15 +930,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>broccoli</v>
+      </c>
+      <c r="B22" t="str">
+        <v>chopped or diced</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1466,15 +956,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>carrot</v>
+      </c>
+      <c r="B23" t="str">
+        <v>chopped</v>
+      </c>
+      <c r="C23" t="str">
+        <v>0.5 cup</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1492,15 +982,15 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>tomato</v>
+      </c>
+      <c r="B24" t="str">
+        <v>medium</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1 tomato</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1515,18 +1005,18 @@
         <v>0.2</v>
       </c>
       <c r="H24">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>cucumber</v>
+      </c>
+      <c r="B25" t="str">
+        <v>small cucumber</v>
+      </c>
+      <c r="C25" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1544,15 +1034,15 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>bell pepper</v>
+      </c>
+      <c r="B26" t="str">
+        <v>medium</v>
+      </c>
+      <c r="C26" t="str">
+        <v>1 pepper</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1570,15 +1060,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>sweet potato</v>
+      </c>
+      <c r="B27" t="str">
+        <v>medium, 5 inch long</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1 potato</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1596,15 +1086,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>brown rice</v>
+      </c>
+      <c r="B28" t="str">
+        <v>cooked</v>
+      </c>
+      <c r="C28" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1622,15 +1112,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>quinoa</v>
+      </c>
+      <c r="B29" t="str">
+        <v>cooked</v>
+      </c>
+      <c r="C29" t="str">
+        <v>0.5 cup</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1645,18 +1135,18 @@
         <v>1.8</v>
       </c>
       <c r="H29">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>oatmeal</v>
+      </c>
+      <c r="B30" t="str">
+        <v>cooked</v>
+      </c>
+      <c r="C30" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1674,12 +1164,12 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>whole wheat bread</v>
+      </c>
+      <c r="C31" t="str">
+        <v>1 slice</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1694,18 +1184,18 @@
         <v>1.3</v>
       </c>
       <c r="H31">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>salmon</v>
+      </c>
+      <c r="B32" t="str">
+        <v>raw</v>
+      </c>
+      <c r="C32" t="str">
+        <v>4oz</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1723,15 +1213,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>tuna</v>
+      </c>
+      <c r="B33" t="str">
+        <v>canned</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1 can</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1749,15 +1239,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>greek yogurt</v>
+      </c>
+      <c r="B34" t="str">
+        <v>plain, nonfat, 0%</v>
+      </c>
+      <c r="C34" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1775,15 +1265,15 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>cottage cheese</v>
+      </c>
+      <c r="B35" t="str">
+        <v>regular, 4%</v>
+      </c>
+      <c r="C35" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1801,15 +1291,15 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>almond</v>
+      </c>
+      <c r="B36" t="str">
+        <v>raw</v>
+      </c>
+      <c r="C36" t="str">
+        <v>6 almonds</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1827,15 +1317,15 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>walnut</v>
+      </c>
+      <c r="B37" t="str">
+        <v>raw</v>
+      </c>
+      <c r="C37" t="str">
+        <v>6 walnuts</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1853,15 +1343,15 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>peanut butter</v>
+      </c>
+      <c r="B38" t="str">
+        <v>skippy</v>
+      </c>
+      <c r="C38" t="str">
+        <v>2 tbsp</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1879,12 +1369,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>olive oil</v>
+      </c>
+      <c r="C39" t="str">
+        <v>1 tbsp</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1902,15 +1392,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>black bean</v>
+      </c>
+      <c r="B40" t="str">
+        <v>canned</v>
+      </c>
+      <c r="C40" t="str">
+        <v>0.5 cup</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1919,7 +1409,7 @@
         <v>109</v>
       </c>
       <c r="F40">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="G40">
         <v>0.3</v>
@@ -1928,15 +1418,15 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" t="s">
-        <v>84</v>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>chickpea</v>
+      </c>
+      <c r="B41" t="str">
+        <v>canned</v>
+      </c>
+      <c r="C41" t="str">
+        <v>1 tbsp</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1954,15 +1444,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" t="s">
-        <v>17</v>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>lentil</v>
+      </c>
+      <c r="B42" t="str">
+        <v>cooked</v>
+      </c>
+      <c r="C42" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1977,15 +1467,15 @@
         <v>0.8</v>
       </c>
       <c r="H42">
-        <v>17.899999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>whole milk</v>
+      </c>
+      <c r="C43" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2003,12 +1493,12 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" t="s">
-        <v>17</v>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2% milk</v>
+      </c>
+      <c r="C44" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2020,18 +1510,18 @@
         <v>12</v>
       </c>
       <c r="G44">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="H44">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" t="s">
-        <v>92</v>
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>parmesan cheese</v>
+      </c>
+      <c r="C45" t="str">
+        <v>1oz</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2049,12 +1539,12 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" t="s">
-        <v>92</v>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>cheddar cheese</v>
+      </c>
+      <c r="C46" t="str">
+        <v>1oz</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2072,12 +1562,12 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" t="s">
-        <v>16</v>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>american cheese</v>
+      </c>
+      <c r="C47" t="str">
+        <v>1 slice</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2095,15 +1585,15 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" t="s">
-        <v>95</v>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>tofu</v>
+      </c>
+      <c r="B48" t="str">
+        <v>raw</v>
+      </c>
+      <c r="C48" t="str">
+        <v>3oz</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2118,18 +1608,18 @@
         <v>2.1</v>
       </c>
       <c r="H48">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" t="s">
-        <v>17</v>
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>pasta</v>
+      </c>
+      <c r="B49" t="str">
+        <v>cooked</v>
+      </c>
+      <c r="C49" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2138,7 +1628,7 @@
         <v>190</v>
       </c>
       <c r="F49">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -2147,15 +1637,15 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>whole wheat pasta</v>
+      </c>
+      <c r="B50" t="str">
+        <v>cooked</v>
+      </c>
+      <c r="C50" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2173,12 +1663,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>lettuce</v>
+      </c>
+      <c r="C51" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2196,12 +1686,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" t="s">
-        <v>17</v>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>arugula</v>
+      </c>
+      <c r="C52" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2219,12 +1709,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" t="s">
-        <v>26</v>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>onion</v>
+      </c>
+      <c r="C53" t="str">
+        <v>0.5 cup</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2242,12 +1732,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" t="s">
-        <v>102</v>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>garlic</v>
+      </c>
+      <c r="C54" t="str">
+        <v>1 clove</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2265,12 +1755,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>lemon</v>
+      </c>
+      <c r="C55" t="str">
+        <v>1 slice</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2288,12 +1778,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" t="s">
-        <v>16</v>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>lime</v>
+      </c>
+      <c r="C56" t="str">
+        <v>1 slice</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2311,12 +1801,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" t="s">
-        <v>84</v>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>honey</v>
+      </c>
+      <c r="C57" t="str">
+        <v>1 tbsp</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2334,12 +1824,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" t="s">
-        <v>84</v>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>maple syrup</v>
+      </c>
+      <c r="C58" t="str">
+        <v>1 tbsp</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2357,12 +1847,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" t="s">
-        <v>84</v>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>chia seed</v>
+      </c>
+      <c r="C59" t="str">
+        <v>1 tbsp</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2374,18 +1864,18 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="H59">
         <v>1.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" t="s">
-        <v>84</v>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>flax seed</v>
+      </c>
+      <c r="C60" t="str">
+        <v>1 tbsp</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2403,15 +1893,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>109</v>
-      </c>
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" t="s">
-        <v>17</v>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>brussel sprouts</v>
+      </c>
+      <c r="B61" t="str">
+        <v>raw</v>
+      </c>
+      <c r="C61" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2429,15 +1919,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" t="s">
-        <v>17</v>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>cauliflower</v>
+      </c>
+      <c r="B62" t="str">
+        <v>raw</v>
+      </c>
+      <c r="C62" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2455,15 +1945,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" t="s">
-        <v>17</v>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>zucchini</v>
+      </c>
+      <c r="B63" t="str">
+        <v>raw</v>
+      </c>
+      <c r="C63" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2481,15 +1971,15 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" t="s">
-        <v>5</v>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>ground turkey</v>
+      </c>
+      <c r="B64" t="str">
+        <v>raw</v>
+      </c>
+      <c r="C64" t="str">
+        <v>4oz</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2507,15 +1997,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" t="s">
-        <v>5</v>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>ground pork</v>
+      </c>
+      <c r="B65" t="str">
+        <v>raw</v>
+      </c>
+      <c r="C65" t="str">
+        <v>4oz</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2533,12 +2023,12 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" t="s">
-        <v>17</v>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>green pea</v>
+      </c>
+      <c r="C66" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2553,18 +2043,18 @@
         <v>0.2</v>
       </c>
       <c r="H66">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>115</v>
-      </c>
-      <c r="B67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" t="s">
-        <v>26</v>
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>asparagus</v>
+      </c>
+      <c r="B67" t="str">
+        <v>chopped</v>
+      </c>
+      <c r="C67" t="str">
+        <v>0.5 cup</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2582,12 +2072,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" t="s">
-        <v>26</v>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>edamame</v>
+      </c>
+      <c r="C68" t="str">
+        <v>0.5 cup</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -2605,15 +2095,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" t="s">
-        <v>17</v>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>cabbage</v>
+      </c>
+      <c r="B69" t="str">
+        <v>raw, chopped</v>
+      </c>
+      <c r="C69" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2628,15 +2118,15 @@
         <v>0.1</v>
       </c>
       <c r="H69">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" t="s">
-        <v>26</v>
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>corn</v>
+      </c>
+      <c r="C70" t="str">
+        <v>0.5 cup</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2654,15 +2144,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" t="s">
-        <v>120</v>
-      </c>
-      <c r="C71" t="s">
-        <v>17</v>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>mushroom</v>
+      </c>
+      <c r="B71" t="str">
+        <v>whole</v>
+      </c>
+      <c r="C71" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2680,12 +2170,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" t="s">
-        <v>17</v>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>couscous</v>
+      </c>
+      <c r="C72" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2703,15 +2193,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>122</v>
-      </c>
-      <c r="B73" t="s">
-        <v>124</v>
-      </c>
-      <c r="C73" t="s">
-        <v>17</v>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>coconut milk</v>
+      </c>
+      <c r="B73" t="str">
+        <v>unsweetened</v>
+      </c>
+      <c r="C73" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2729,15 +2219,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>123</v>
-      </c>
-      <c r="B74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" t="s">
-        <v>17</v>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>almond milk</v>
+      </c>
+      <c r="B74" t="str">
+        <v>unsweetened</v>
+      </c>
+      <c r="C74" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2749,21 +2239,21 @@
         <v>3.2</v>
       </c>
       <c r="G74">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>125</v>
-      </c>
-      <c r="B75" t="s">
-        <v>124</v>
-      </c>
-      <c r="C75" t="s">
-        <v>17</v>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>cashew milk</v>
+      </c>
+      <c r="B75" t="str">
+        <v>unsweetened</v>
+      </c>
+      <c r="C75" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2781,12 +2271,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" t="s">
-        <v>17</v>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>rice milk</v>
+      </c>
+      <c r="C76" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2804,15 +2294,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" t="s">
-        <v>128</v>
-      </c>
-      <c r="C77" t="s">
-        <v>26</v>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>mango</v>
+      </c>
+      <c r="B77" t="str">
+        <v>pieces</v>
+      </c>
+      <c r="C77" t="str">
+        <v>0.5 cup</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2830,12 +2320,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C78" t="s">
-        <v>17</v>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>mixed berry</v>
+      </c>
+      <c r="C78" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2853,12 +2343,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" t="s">
-        <v>5</v>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>sirloin steak</v>
+      </c>
+      <c r="C79" t="str">
+        <v>4oz</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2876,12 +2366,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>131</v>
-      </c>
-      <c r="C80" t="s">
-        <v>5</v>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>flank steak</v>
+      </c>
+      <c r="C80" t="str">
+        <v>4oz</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -2899,12 +2389,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>132</v>
-      </c>
-      <c r="C81" t="s">
-        <v>5</v>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>new york steak</v>
+      </c>
+      <c r="C81" t="str">
+        <v>4oz</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2922,12 +2412,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>133</v>
-      </c>
-      <c r="C82" t="s">
-        <v>84</v>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>balsamic vinegar</v>
+      </c>
+      <c r="C82" t="str">
+        <v>1 tbsp</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2945,15 +2435,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>134</v>
-      </c>
-      <c r="B83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C83" t="s">
-        <v>135</v>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>red wine</v>
+      </c>
+      <c r="B83" t="str">
+        <v>6oz</v>
+      </c>
+      <c r="C83" t="str">
+        <v>1 glass</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -2962,7 +2452,7 @@
         <v>145</v>
       </c>
       <c r="F83">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2971,15 +2461,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>137</v>
-      </c>
-      <c r="B84" t="s">
-        <v>136</v>
-      </c>
-      <c r="C84" t="s">
-        <v>135</v>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>white wine</v>
+      </c>
+      <c r="B84" t="str">
+        <v>6oz</v>
+      </c>
+      <c r="C84" t="str">
+        <v>1 glass</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -2988,7 +2478,7 @@
         <v>139</v>
       </c>
       <c r="F84">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2997,12 +2487,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>138</v>
-      </c>
-      <c r="C85" t="s">
-        <v>139</v>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>light beer</v>
+      </c>
+      <c r="C85" t="str">
+        <v>1 beer</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -3020,12 +2510,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>140</v>
-      </c>
-      <c r="C86" t="s">
-        <v>139</v>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>ipa</v>
+      </c>
+      <c r="C86" t="str">
+        <v>1 beer</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3043,15 +2533,15 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>141</v>
-      </c>
-      <c r="B87" t="s">
-        <v>146</v>
-      </c>
-      <c r="C87" t="s">
-        <v>142</v>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>tequila</v>
+      </c>
+      <c r="B87" t="str">
+        <v>1.5oz</v>
+      </c>
+      <c r="C87" t="str">
+        <v>1 shot</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -3069,15 +2559,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>143</v>
-      </c>
-      <c r="B88" t="s">
-        <v>146</v>
-      </c>
-      <c r="C88" t="s">
-        <v>142</v>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>vodka</v>
+      </c>
+      <c r="B88" t="str">
+        <v>1.5oz</v>
+      </c>
+      <c r="C88" t="str">
+        <v>1 shot</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -3095,15 +2585,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>144</v>
-      </c>
-      <c r="B89" t="s">
-        <v>146</v>
-      </c>
-      <c r="C89" t="s">
-        <v>142</v>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>gin</v>
+      </c>
+      <c r="B89" t="str">
+        <v>1.5oz</v>
+      </c>
+      <c r="C89" t="str">
+        <v>1 shot</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -3121,15 +2611,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>145</v>
-      </c>
-      <c r="B90" t="s">
-        <v>146</v>
-      </c>
-      <c r="C90" t="s">
-        <v>142</v>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>whisky</v>
+      </c>
+      <c r="B90" t="str">
+        <v>1.5oz</v>
+      </c>
+      <c r="C90" t="str">
+        <v>1 shot</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -3147,12 +2637,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>147</v>
-      </c>
-      <c r="C91" t="s">
-        <v>148</v>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>bacon</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2 pieces</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -3170,12 +2660,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>149</v>
-      </c>
-      <c r="C92" t="s">
-        <v>5</v>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>sausage</v>
+      </c>
+      <c r="C92" t="str">
+        <v>4oz</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -3193,12 +2683,12 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>150</v>
-      </c>
-      <c r="C93" t="s">
-        <v>5</v>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>panchetta</v>
+      </c>
+      <c r="C93" t="str">
+        <v>4oz</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -3216,15 +2706,15 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>151</v>
-      </c>
-      <c r="B94" t="s">
-        <v>51</v>
-      </c>
-      <c r="C94" t="s">
-        <v>84</v>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>jam</v>
+      </c>
+      <c r="B94" t="str">
+        <v>strawberry</v>
+      </c>
+      <c r="C94" t="str">
+        <v>1 tbsp</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -3242,12 +2732,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>152</v>
-      </c>
-      <c r="C95" t="s">
-        <v>14</v>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>corn tortilla</v>
+      </c>
+      <c r="C95" t="str">
+        <v>1 tortilla</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -3265,15 +2755,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>154</v>
-      </c>
-      <c r="B96" t="s">
-        <v>157</v>
-      </c>
-      <c r="C96" t="s">
-        <v>159</v>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>quick protein</v>
+      </c>
+      <c r="B96" t="str">
+        <v>quick add protein</v>
+      </c>
+      <c r="C96" t="str">
+        <v>1 gram</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -3291,15 +2781,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>153</v>
-      </c>
-      <c r="B97" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" t="s">
-        <v>159</v>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>quick carb</v>
+      </c>
+      <c r="B97" t="str">
+        <v>quick add carb</v>
+      </c>
+      <c r="C97" t="str">
+        <v>1 gram</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -3317,15 +2807,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>155</v>
-      </c>
-      <c r="B98" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98" t="s">
-        <v>159</v>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>quick fat</v>
+      </c>
+      <c r="B98" t="str">
+        <v>quick add fat</v>
+      </c>
+      <c r="C98" t="str">
+        <v>1 gram</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -3343,15 +2833,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>160</v>
-      </c>
-      <c r="B99" t="s">
-        <v>161</v>
-      </c>
-      <c r="C99" t="s">
-        <v>159</v>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>quick alcohol</v>
+      </c>
+      <c r="B99" t="str">
+        <v>quick add alcohol</v>
+      </c>
+      <c r="C99" t="str">
+        <v>1 gram</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -3369,12 +2859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>163</v>
-      </c>
-      <c r="B100" t="s">
-        <v>162</v>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>quick calorie</v>
+      </c>
+      <c r="B100" t="str">
+        <v>quick add calories</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -3392,12 +2882,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C101" t="s">
-        <v>82</v>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>ranch</v>
+      </c>
+      <c r="C101" t="str">
+        <v>2 tbsp</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -3415,12 +2905,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>165</v>
-      </c>
-      <c r="C102" t="s">
-        <v>92</v>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>pesto</v>
+      </c>
+      <c r="C102" t="str">
+        <v>1oz</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -3438,12 +2928,12 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>166</v>
-      </c>
-      <c r="C103" t="s">
-        <v>17</v>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>marinara sauce</v>
+      </c>
+      <c r="C103" t="str">
+        <v>1 cup</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -3461,12 +2951,12 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>167</v>
-      </c>
-      <c r="C104" t="s">
-        <v>84</v>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>ketchup</v>
+      </c>
+      <c r="C104" t="str">
+        <v>1 tbsp</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -3484,12 +2974,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>168</v>
-      </c>
-      <c r="C105" t="s">
-        <v>84</v>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>mustard</v>
+      </c>
+      <c r="C105" t="str">
+        <v>1 tbsp</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -3507,12 +2997,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>170</v>
-      </c>
-      <c r="C106" t="s">
-        <v>84</v>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>mayonnaise</v>
+      </c>
+      <c r="C106" t="str">
+        <v>1 tbsp</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -3530,12 +3020,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>169</v>
-      </c>
-      <c r="C107" t="s">
-        <v>84</v>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>relish</v>
+      </c>
+      <c r="C107" t="str">
+        <v>1 tbsp</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -3553,7 +3043,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Test</v>
+      </c>
+      <c r="B108" t="str">
+        <v/>
+      </c>
+      <c r="C108" t="str">
+        <v/>
+      </c>
+      <c r="D108" t="str">
+        <v/>
+      </c>
+      <c r="E108">
+        <v>100</v>
+      </c>
+      <c r="F108">
+        <v>20</v>
+      </c>
+      <c r="G108">
+        <v>5</v>
+      </c>
+      <c r="H108">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H108"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/macro_nutrients_p2.xlsx
+++ b/backend/data/macro_nutrients_p2.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3069,9 +3069,35 @@
         <v>10</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>mango</v>
+      </c>
+      <c r="B109" t="str">
+        <v/>
+      </c>
+      <c r="C109" t="str">
+        <v/>
+      </c>
+      <c r="D109" t="str">
+        <v/>
+      </c>
+      <c r="E109">
+        <v>60</v>
+      </c>
+      <c r="F109">
+        <v>15</v>
+      </c>
+      <c r="G109">
+        <v>0.4</v>
+      </c>
+      <c r="H109">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H108"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H109"/>
   </ignoredErrors>
 </worksheet>
 </file>